--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_9_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_9_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.42000000000038</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.289901767151605e-13</v>
+        <v>3.983480212355062e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>4.289901767151605e-13</v>
+        <v>3.983480212355062e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>57.26848112126604</v>
+        <v>56.91859277802148</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[45.25068421267032, 69.28627802986176]</t>
+          <t>[45.58468841485261, 68.25249714119036]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.851629960469836e-12</v>
+        <v>3.632649736573512e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.851629960469836e-12</v>
+        <v>3.632649736573512e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.628973968528041</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3899739268135027, 1.8679740102425795]</t>
+          <t>[1.3522370781217319, 1.8050792624229643]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.24451779143153</v>
+        <v>56.03680821834028</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.55985428219515, 59.929181300667906]</t>
+          <t>[48.421572637350444, 63.65204379933011]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.08888888888917</v>
+        <v>18.26946946946975</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.16000000000026</v>
+        <v>17.39019019019046</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.01777777777807</v>
+        <v>19.14874874874905</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.42000000000038</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>6.828759779864413e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>6.828759779864413e-12</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.80811803234536</v>
+        <v>61.0169808986368</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[46.743808463380645, 66.87242760131006]</t>
+          <t>[47.44236313590024, 74.59159866137337]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>1.06581410364015e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>1.06581410364015e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.540921321580579</v>
+        <v>1.528342372016656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3522370781217328, 1.7296055650394253]</t>
+          <t>[1.2641844311742716, 1.7925003128590404]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>50.43501844455528</v>
+        <v>52.01896668952315</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.804081068193085, 57.065955820917466]</t>
+          <t>[43.083505725173126, 60.95442765387318]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>18.4311111111114</v>
+        <v>18.46486486486515</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.69777777777805</v>
+        <v>17.43903903903931</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.16444444444474</v>
+        <v>19.49069069069099</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.42000000000038</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.067645971630782e-11</v>
+        <v>2.433031554005538e-11</v>
       </c>
       <c r="I4" t="n">
-        <v>1.067645971630782e-11</v>
+        <v>2.433031554005538e-11</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>54.04929034221581</v>
+        <v>59.86629657083881</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[41.66719985028739, 66.43138083414424]</t>
+          <t>[45.7506867019806, 73.98190643969701]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.499467299799107e-11</v>
+        <v>5.679900993982301e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>2.499467299799107e-11</v>
+        <v>5.679900993982301e-11</v>
       </c>
       <c r="P4" t="n">
-        <v>1.528342372016656</v>
+        <v>1.515763422452732</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.7925003128590404]</t>
+          <t>[1.2390265320464247, 1.7925003128590395]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.19824158875781e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>2.19824158875781e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>51.46988991718764</v>
+        <v>56.62638572587814</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.434847480794424, 59.50493235358086]</t>
+          <t>[47.48263348402272, 65.77013796773358]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>18.48000000000029</v>
+        <v>18.513713713714</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.45333333333361</v>
+        <v>17.43903903903932</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.50666666666697</v>
+        <v>19.58838838838869</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.42000000000038</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>9.38761290925072e-11</v>
+        <v>1.319833131674386e-12</v>
       </c>
       <c r="I5" t="n">
-        <v>9.38761290925072e-11</v>
+        <v>1.319833131674386e-12</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.99948193797231</v>
+        <v>57.22955806171375</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[38.02109333797351, 65.9778705379711]</t>
+          <t>[43.70414940925916, 70.75496671416835]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.907448199389705e-09</v>
+        <v>6.065525859355603e-11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.907448199389705e-09</v>
+        <v>6.065525859355603e-11</v>
       </c>
       <c r="P5" t="n">
-        <v>1.364816027685656</v>
+        <v>1.264184431174272</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.0629212381515014, 1.6667108172198102]</t>
+          <t>[1.0126054398958093, 1.5157634224527339]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.999467837611519e-12</v>
+        <v>3.563815909046752e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>8.999467837611519e-12</v>
+        <v>3.563815909046752e-13</v>
       </c>
       <c r="T5" t="n">
-        <v>50.3965561358975</v>
+        <v>56.6572370284004</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.09874649446516, 58.694365777329836]</t>
+          <t>[48.734331685185026, 64.58014237161578]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>19.11555555555585</v>
+        <v>19.49069069069099</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.9422222222225</v>
+        <v>18.513713713714</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.2888888888892</v>
+        <v>20.46766766766798</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.42000000000038</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.176037128265307e-14</v>
+        <v>1.570810148621149e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>2.176037128265307e-14</v>
+        <v>1.570810148621149e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>63.69274484716054</v>
+        <v>55.50618677837979</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.65800437276616, 77.72748532155492]</t>
+          <t>[41.16408316910234, 69.84829038765723]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>8.034684029212258e-12</v>
+        <v>6.865645829634559e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>8.034684029212258e-12</v>
+        <v>6.865645829634559e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>1.201289683354656</v>
+        <v>1.213868632918578</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 1.4402897250691948]</t>
+          <t>[0.9245527929483472, 1.5031844728888082]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.534950110406498e-13</v>
+        <v>7.688494285673642e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>3.534950110406498e-13</v>
+        <v>7.688494285673642e-11</v>
       </c>
       <c r="T6" t="n">
-        <v>54.41489930446775</v>
+        <v>48.08665347446178</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.62889814406297, 62.20090046487252]</t>
+          <t>[39.76342581754097, 56.4098811313826]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>19.75111111111142</v>
+        <v>19.68608608608639</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.82222222222251</v>
+        <v>18.56256256256285</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.68000000000032</v>
+        <v>20.80960960960993</v>
       </c>
     </row>
     <row r="7">
@@ -1011,53 +1011,53 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.42000000000038</v>
+        <v>24.40000000000038</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.703393064962256e-13</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="I7" t="n">
-        <v>2.703393064962256e-13</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>61.25895012426454</v>
+        <v>56.70771118068951</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[46.611315129476864, 75.90658511905221]</t>
+          <t>[44.38697194116, 69.02845042021903]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>8.411515928230529e-11</v>
+        <v>5.28577182024037e-12</v>
       </c>
       <c r="O7" t="n">
-        <v>8.411515928230529e-11</v>
+        <v>5.28577182024037e-12</v>
       </c>
       <c r="P7" t="n">
-        <v>1.13839493553504</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8742369946926551, 1.402552876377424]</t>
+          <t>[0.8993948938205012, 1.3522370781217319]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.608779941544071e-11</v>
+        <v>4.96713781217295e-13</v>
       </c>
       <c r="S7" t="n">
-        <v>3.608779941544071e-11</v>
+        <v>4.96713781217295e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>53.316053542106</v>
+        <v>53.12572562974447</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.25025977626854, 61.38184730794347]</t>
+          <t>[46.43383443543784, 59.81761682405109]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>19.99555555555587</v>
+        <v>20.02802802802834</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.96888888888919</v>
+        <v>19.14874874874905</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.02222222222255</v>
+        <v>20.90730730730763</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.88000000000029</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.325017955939757e-11</v>
+        <v>3.693934047532821e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>2.325017955939757e-11</v>
+        <v>3.693934047532821e-12</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>53.27801879005779</v>
+        <v>60.13672467048717</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[37.373481739102026, 69.18255584101357]</t>
+          <t>[43.15918609523747, 77.11426324573686]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.420072497955061e-08</v>
+        <v>6.446097433610021e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>2.420072497955061e-08</v>
+        <v>6.446097433610021e-09</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8490790955648082</v>
+        <v>0.823921196436963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.5597632555945777, 1.1383949355350387]</t>
+          <t>[0.5723422051585008, 1.0755001877154253]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.232514414503896e-07</v>
+        <v>4.055176083817003e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>4.232514414503896e-07</v>
+        <v>4.055176083817003e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>55.23099142715255</v>
+        <v>53.73423469926428</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[47.17086778977112, 63.29111506453397]</t>
+          <t>[45.16851649871967, 62.2999528998089]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>20.65297297297323</v>
+        <v>20.71383383383408</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.55339339339364</v>
+        <v>19.75927927927952</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.75255255255282</v>
+        <v>21.66838838838865</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.88000000000029</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.569855356819971e-11</v>
+        <v>2.752020833440838e-12</v>
       </c>
       <c r="I9" t="n">
-        <v>1.569855356819971e-11</v>
+        <v>2.752020833440838e-12</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>60.59005401599136</v>
+        <v>50.90265667506133</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[43.331718629274135, 77.84838940270858]</t>
+          <t>[37.27136251503491, 64.53395083508775]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.995600626031774e-09</v>
+        <v>1.730604104466238e-09</v>
       </c>
       <c r="O9" t="n">
-        <v>7.995600626031774e-09</v>
+        <v>1.730604104466238e-09</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8993948938205003</v>
+        <v>0.7987632973091161</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6100790538502707, 1.18871073379073]</t>
+          <t>[0.5220264069028078, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.277262666743439e-07</v>
+        <v>5.903508242255384e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>1.277262666743439e-07</v>
+        <v>5.903508242255384e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>54.90307401442036</v>
+        <v>49.25143441117856</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.858130628058795, 63.94801740078193]</t>
+          <t>[42.07294031041135, 56.42992851194577]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20.461741741742</v>
+        <v>20.80928928928954</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.36216216216241</v>
+        <v>19.75927927927952</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.56132132132158</v>
+        <v>21.85929929929956</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.88000000000029</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.462274745733794e-12</v>
+        <v>2.343680804983705e-12</v>
       </c>
       <c r="I10" t="n">
-        <v>1.462274745733794e-12</v>
+        <v>2.343680804983705e-12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>63.46562407626186</v>
+        <v>57.08392722972398</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[46.80095760304633, 80.1302905494774]</t>
+          <t>[41.98882842236772, 72.17902603708023]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.044381914283576e-09</v>
+        <v>1.253106063359155e-09</v>
       </c>
       <c r="O10" t="n">
-        <v>1.044381914283576e-09</v>
+        <v>1.253106063359155e-09</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9497106920761933</v>
+        <v>1.025184389459731</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 1.2138686329185777]</t>
+          <t>[0.748447499053424, 1.301921279866039]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.477970216854033e-09</v>
+        <v>2.119589392890475e-09</v>
       </c>
       <c r="S10" t="n">
-        <v>4.477970216854033e-09</v>
+        <v>2.119589392890475e-09</v>
       </c>
       <c r="T10" t="n">
-        <v>55.15696097038428</v>
+        <v>53.8701049906449</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.395634486858576, 63.91828745390999]</t>
+          <t>[45.87188798588454, 61.86832199540525]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.27051051051076</v>
+        <v>19.95019019019043</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.26654654654678</v>
+        <v>18.90018018018041</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.27447447447474</v>
+        <v>21.00020020020045</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.88000000000029</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.6472383153382e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.6472383153382e-12</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>65.39526500939508</v>
+        <v>58.43478429974041</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[53.540742705348094, 77.24978731344206]</t>
+          <t>[42.37344959212358, 74.49611900735725]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.731947918415244e-14</v>
+        <v>3.335702603024515e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>1.731947918415244e-14</v>
+        <v>3.335702603024515e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9245527929483472</v>
+        <v>0.9874475407679633</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 1.1006580868432705]</t>
+          <t>[0.698131700797731, 1.2767633807381955]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>1.566022778121123e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>1.566022778121123e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>53.91440020446919</v>
+        <v>56.31280654989749</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.79053937094384, 60.03826103799454]</t>
+          <t>[47.838826652203196, 64.7867864475918]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>20.36612612612638</v>
+        <v>20.09337337337362</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.69681681681706</v>
+        <v>18.99563563563586</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.03543543543569</v>
+        <v>21.19111111111137</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.88000000000029</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.298161660974074e-14</v>
+        <v>1.857042297714884e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>2.298161660974074e-14</v>
+        <v>1.857042297714884e-10</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>61.55822996109621</v>
+        <v>56.26438215785407</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[47.52577695590287, 75.59068296628955]</t>
+          <t>[38.432490904184114, 74.09627341152401]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.166000712122695e-11</v>
+        <v>9.263108324830682e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>2.166000712122695e-11</v>
+        <v>9.263108324830682e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9874475407679624</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 1.2264475824825007]</t>
+          <t>[0.5975001042863459, 1.2264475824825025]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.179427666642141e-10</v>
+        <v>5.375660059314669e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>1.179427666642141e-10</v>
+        <v>5.375660059314669e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>53.69263214324178</v>
+        <v>56.98515265234647</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.208185485043515, 61.17707880144005]</t>
+          <t>[47.85352558627933, 66.11677971841361]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>20.12708708708734</v>
+        <v>20.37973973973999</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.21873873873898</v>
+        <v>19.18654654654678</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.03543543543569</v>
+        <v>21.5729329329332</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_9_square_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_10/cosinor_per_day_fixed_period_9_square_10_.xlsx
@@ -581,39 +581,39 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.40000000000038</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.983480212355062e-13</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>3.983480212355062e-13</v>
+        <v>2.344791028008331e-13</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>56.91859277802148</v>
+        <v>60.37210404190186</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[45.58468841485261, 68.25249714119036]</t>
+          <t>[48.14987508029007, 72.59433300351364]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.632649736573512e-13</v>
+        <v>6.106226635438361e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>3.632649736573512e-13</v>
+        <v>6.106226635438361e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3522370781217319, 1.8050792624229643]</t>
+          <t>[1.2641844311742716, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="R2" t="n">
@@ -623,11 +623,11 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>56.03680821834028</v>
+        <v>53.72008306219945</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.421572637350444, 63.65204379933011]</t>
+          <t>[45.78903055559812, 61.65113556880078]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.26946946946975</v>
+        <v>18.53513513513541</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.39019019019046</v>
+        <v>17.65945945945972</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.14874874874905</v>
+        <v>19.4108108108111</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.40000000000038</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.828759779864413e-12</v>
+        <v>5.662137425588298e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>6.828759779864413e-12</v>
+        <v>5.662137425588298e-15</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>61.0169808986368</v>
+        <v>60.6013279280809</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[47.44236313590024, 74.59159866137337]</t>
+          <t>[49.384986346451925, 71.81766950970987]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.06581410364015e-11</v>
+        <v>3.441691376337985e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06581410364015e-11</v>
+        <v>3.441691376337985e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>1.528342372016656</v>
+        <v>1.478026573760965</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2641844311742716, 1.7925003128590404]</t>
+          <t>[1.2767633807381937, 1.6792897667837359]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>52.01896668952315</v>
+        <v>52.33624179174363</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.083505725173126, 60.95442765387318]</t>
+          <t>[45.21108845703539, 59.461395126451876]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.46486486486515</v>
+        <v>18.58378378378405</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.43903903903931</v>
+        <v>17.80540540540566</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.49069069069099</v>
+        <v>19.36216216216245</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.40000000000038</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.433031554005538e-11</v>
+        <v>1.215694211964546e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.433031554005538e-11</v>
+        <v>1.215694211964546e-13</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.86629657083881</v>
+        <v>55.23015105713895</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[45.7506867019806, 73.98190643969701]</t>
+          <t>[43.54346838383161, 66.91683373044629]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>5.679900993982301e-11</v>
+        <v>2.384314967684986e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>5.679900993982301e-11</v>
+        <v>2.384314967684986e-12</v>
       </c>
       <c r="P4" t="n">
-        <v>1.515763422452732</v>
+        <v>1.427710775505272</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2390265320464247, 1.7925003128590395]</t>
+          <t>[1.2012896833546556, 1.654131867655888]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.19824158875781e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>2.19824158875781e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>56.62638572587814</v>
+        <v>53.41767230785805</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.48263348402272, 65.77013796773358]</t>
+          <t>[46.31586873286778, 60.51947588284832]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18.513713713714</v>
+        <v>18.77837837837865</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.43903903903932</v>
+        <v>17.90270270270296</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.58838838838869</v>
+        <v>19.65405405405435</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.40000000000038</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.319833131674386e-12</v>
+        <v>2.221911543642818e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>1.319833131674386e-12</v>
+        <v>2.221911543642818e-11</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>57.22955806171375</v>
+        <v>56.42491347553678</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[43.70414940925916, 70.75496671416835]</t>
+          <t>[41.7114332271922, 71.13839372388135]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.065525859355603e-11</v>
+        <v>8.72123040451811e-10</v>
       </c>
       <c r="O5" t="n">
-        <v>6.065525859355603e-11</v>
+        <v>8.72123040451811e-10</v>
       </c>
       <c r="P5" t="n">
-        <v>1.264184431174272</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 1.5157634224527339]</t>
+          <t>[1.0000264903318863, 1.5535002711445012]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.563815909046752e-13</v>
+        <v>4.921618668163319e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>3.563815909046752e-13</v>
+        <v>4.921618668163319e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>56.6572370284004</v>
+        <v>52.62411162320151</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.734331685185026, 64.58014237161578]</t>
+          <t>[44.0755748070639, 61.17264843933913]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>19.49069069069099</v>
+        <v>19.36216216216245</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.513713713714</v>
+        <v>18.29189189189216</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.46766766766798</v>
+        <v>20.43243243243273</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.40000000000038</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.570810148621149e-11</v>
+        <v>2.898237205783971e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>1.570810148621149e-11</v>
+        <v>2.898237205783971e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.50618677837979</v>
+        <v>51.62110604886768</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[41.16408316910234, 69.84829038765723]</t>
+          <t>[37.21296627192443, 66.02924582581093]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.865645829634559e-10</v>
+        <v>4.877473536168964e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>6.865645829634559e-10</v>
+        <v>4.877473536168964e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>1.213868632918578</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 1.5031844728888082]</t>
+          <t>[0.9119738433844251, 1.490605523324886]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.688494285673642e-11</v>
+        <v>1.027693485866621e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>7.688494285673642e-11</v>
+        <v>1.027693485866621e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>48.08665347446178</v>
+        <v>53.52511642715333</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[39.76342581754097, 56.4098811313826]</t>
+          <t>[45.63627690646496, 61.4139559478417]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19.68608608608639</v>
+        <v>19.65405405405435</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.56256256256285</v>
+        <v>18.53513513513541</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.80960960960993</v>
+        <v>20.77297297297328</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.40000000000038</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>6.745096703397735e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>6.745096703397735e-10</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>56.70771118068951</v>
+        <v>51.08440371352174</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[44.38697194116, 69.02845042021903]</t>
+          <t>[35.58649229458125, 66.58231513246223]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>5.28577182024037e-12</v>
+        <v>3.503258416692745e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>5.28577182024037e-12</v>
+        <v>3.503258416692745e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.125815985971117</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8993948938205012, 1.3522370781217319]</t>
+          <t>[0.8490790955648082, 1.5031844728888109]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.96713781217295e-13</v>
+        <v>4.449948631801703e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>4.96713781217295e-13</v>
+        <v>4.449948631801703e-09</v>
       </c>
       <c r="T7" t="n">
-        <v>53.12572562974447</v>
+        <v>53.1816169969253</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.43383443543784, 59.81761682405109]</t>
+          <t>[44.4590897149808, 61.9041442788698]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>20.02802802802834</v>
+        <v>19.75135135135164</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.14874874874905</v>
+        <v>18.48648648648676</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.90730730730763</v>
+        <v>21.01621621621653</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.84000000000029</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.693934047532821e-12</v>
+        <v>1.171063246374615e-12</v>
       </c>
       <c r="I8" t="n">
-        <v>3.693934047532821e-12</v>
+        <v>1.171063246374615e-12</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>60.13672467048717</v>
+        <v>61.02292515552679</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[43.15918609523747, 77.11426324573686]</t>
+          <t>[44.475090586832984, 77.57075972422058]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>6.446097433610021e-09</v>
+        <v>2.378620633791684e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>6.446097433610021e-09</v>
+        <v>2.378620633791684e-09</v>
       </c>
       <c r="P8" t="n">
         <v>0.823921196436963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 1.0755001877154253]</t>
+          <t>[0.5597632555945777, 1.0880791372793484]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.055176083817003e-08</v>
+        <v>1.189242173627036e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>4.055176083817003e-08</v>
+        <v>1.189242173627036e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>53.73423469926428</v>
+        <v>55.09494607233528</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.16851649871967, 62.2999528998089]</t>
+          <t>[46.72354793065699, 63.46634421401356]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20.71383383383408</v>
+        <v>20.63563563563587</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.75927927927952</v>
+        <v>19.63713713713736</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.66838838838865</v>
+        <v>21.63413413413438</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.84000000000029</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.752020833440838e-12</v>
+        <v>1.554512074619652e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>2.752020833440838e-12</v>
+        <v>1.554512074619652e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>50.90265667506133</v>
+        <v>58.38456891279557</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.27136251503491, 64.53395083508775]</t>
+          <t>[39.91752490033451, 76.85161292525663]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.730604104466238e-09</v>
+        <v>8.869883139084322e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.730604104466238e-09</v>
+        <v>8.869883139084322e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7987632973091161</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.5220264069028078, 1.0755001877154244]</t>
+          <t>[0.35850006257180755, 0.9874475407679641]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.903508242255384e-07</v>
+        <v>8.767575461177124e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>5.903508242255384e-07</v>
+        <v>8.767575461177124e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>49.25143441117856</v>
+        <v>57.63717766998317</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.07294031041135, 56.42992851194577]</t>
+          <t>[48.20217629641262, 67.07217904355372]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>20.80928928928954</v>
+        <v>21.20620620620645</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.75927927927952</v>
+        <v>20.01751751751774</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.85929929929956</v>
+        <v>22.39489489489516</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.84000000000029</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.343680804983705e-12</v>
+        <v>1.25574328713185e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>2.343680804983705e-12</v>
+        <v>1.25574328713185e-10</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>57.08392722972398</v>
+        <v>56.07663579375299</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[41.98882842236772, 72.17902603708023]</t>
+          <t>[39.53565188071656, 72.61761970678943]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.253106063359155e-09</v>
+        <v>1.833292206931958e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>1.253106063359155e-09</v>
+        <v>1.833292206931958e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>1.025184389459731</v>
+        <v>1.062921238151502</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 1.301921279866039]</t>
+          <t>[0.748447499053424, 1.3773949772495806]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.119589392890475e-09</v>
+        <v>1.966245855022919e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>2.119589392890475e-09</v>
+        <v>1.966245855022919e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>53.8701049906449</v>
+        <v>56.5099898423364</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.87188798588454, 61.86832199540525]</t>
+          <t>[47.54554500056893, 65.47443468410387]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>19.95019019019043</v>
+        <v>19.73223223223246</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.90018018018041</v>
+        <v>18.54354354354375</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.00020020020045</v>
+        <v>20.92092092092116</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.84000000000029</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>6.6472383153382e-12</v>
+        <v>1.52433621281034e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6472383153382e-12</v>
+        <v>1.52433621281034e-13</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>58.43478429974041</v>
+        <v>62.78511728765118</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[42.37344959212358, 74.49611900735725]</t>
+          <t>[47.03379599083512, 78.53643858446723]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.335702603024515e-09</v>
+        <v>3.13572057208944e-10</v>
       </c>
       <c r="O11" t="n">
-        <v>3.335702603024515e-09</v>
+        <v>3.13572057208944e-10</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9874475407679633</v>
+        <v>0.9371317425122712</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.698131700797731, 1.2767633807381955]</t>
+          <t>[0.6855527512338089, 1.1887107337907334]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.566022778121123e-08</v>
+        <v>1.843344588081663e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>1.566022778121123e-08</v>
+        <v>1.843344588081663e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>56.31280654989749</v>
+        <v>56.2411131256878</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.838826652203196, 64.7867864475918]</t>
+          <t>[48.15684882959312, 64.32537742178246]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>20.09337337337362</v>
+        <v>20.20770770770794</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.99563563563586</v>
+        <v>19.25675675675697</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.19111111111137</v>
+        <v>21.1586586586589</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.84000000000029</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.857042297714884e-10</v>
+        <v>3.563815909046752e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>1.857042297714884e-10</v>
+        <v>3.563815909046752e-14</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>56.26438215785407</v>
+        <v>58.29066550479722</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[38.432490904184114, 74.09627341152401]</t>
+          <t>[44.7304745394576, 71.85085647013683]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>9.263108324830682e-08</v>
+        <v>3.877875798252717e-11</v>
       </c>
       <c r="O12" t="n">
-        <v>9.263108324830682e-08</v>
+        <v>3.877875798252717e-11</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9119738433844242</v>
+        <v>1.012605439895808</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.5975001042863459, 1.2264475824825025]</t>
+          <t>[0.7610264486173479, 1.264184431174269]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5.375660059314669e-07</v>
+        <v>2.411515431788303e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>5.375660059314669e-07</v>
+        <v>2.411515431788303e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>56.98515265234647</v>
+        <v>52.82557407078345</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[47.85352558627933, 66.11677971841361]</t>
+          <t>[45.65591660810925, 59.995231533457655]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>20.37973973973999</v>
+        <v>19.92242242242266</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.18654654654678</v>
+        <v>18.9714714714717</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.5729329329332</v>
+        <v>20.87337337337361</v>
       </c>
     </row>
   </sheetData>
